--- a/src/assets/Template Excel/Layout_Building_Distance.xlsx
+++ b/src/assets/Template Excel/Layout_Building_Distance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TABLE SRI\NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRI Projek\SRI FE\Terbaru 23-11-2024\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB262B-914B-4BB0-A8BD-2E019927A3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C42BD34-D6BD-4933-9EF9-192733D407B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{99971888-FD28-4D83-9EE8-36FF8E88C11B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{99971888-FD28-4D83-9EE8-36FF8E88C11B}"/>
   </bookViews>
   <sheets>
     <sheet name="Building Distance" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>BUILDING_ID_1</t>
   </si>
@@ -45,6 +43,9 @@
   </si>
   <si>
     <t>DISTANCE</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -119,7 +120,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,103 +457,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E42A82-B9EA-4B34-920D-102879C44D52}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
